--- a/Contract/storage/excel/contracts_2025.xlsx
+++ b/Contract/storage/excel/contracts_2025.xlsx
@@ -15,9 +15,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -419,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD25"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
@@ -3624,6 +3625,647 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1596/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>46018</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Sao chép trực tuyến</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>HĐQTGAN-PN</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>BÀ LÊ THỊ HƯƠNG LY</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>16 Đường số 9, Khu phố 5, phường Hiệp Bình, Tp. HCM</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0976482324</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Lê Thị Hương Ly</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Giám đốc</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>bechauxinh6789@gmail.com</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>001199031303</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>10/07/2021</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>LP Entertainment</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>UCtJDYAxmyxkq-VD_JKFEjsA</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>770000</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>700000</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>700,000</t>
+        </is>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>70000</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="AA26" t="n">
+        <v>770000</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Bảy trăm bảy mươi nghìn đồng</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-0940_2025_1596_SCTT_LP-Entertainment.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2555/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sao chép trực tuyến</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>HĐQTGAN-PN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>BÀ LÊ THỊ HƯƠNG LY</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>16 Đường số 9, Khu phố 5, phường Hiệp Bình, Tp. HCM</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0976482324</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Lê Thị Hương Ly</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Giám đốc</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>bechauxinh6789@gmail.com</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>001199031303</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>10/07/2021</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>LP Entertainment</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>UCtJDYAxmyxkq-VD_JKFEjsA</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>770000</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>700000</v>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>700,000</t>
+        </is>
+      </c>
+      <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>70000</v>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="AA27" t="n">
+        <v>770000</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Bảy trăm bảy mươi nghìn đồng</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1128_2025_2555_SCTT_LP-Entertainment.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>9333/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sao chép trực tuyến</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>HĐQTGAN-PN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BÀ LÊ THỊ HƯƠNG LY</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>16 Đường số 9, Khu phố 5, phường Hiệp Bình, Tp. HCM</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0976482324</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Lê Thị Hương Ly</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Giám đốc</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>bechauxinh6789@gmail.com</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>001199031303</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>10/07/2021</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>LP Entertainment</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>UCtJDYAxmyxkq-VD_JKFEjsA</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>770000</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>700000</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>700,000</t>
+        </is>
+      </c>
+      <c r="X28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>70000</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="AA28" t="n">
+        <v>770000</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Bảy trăm bảy mươi nghìn đồng</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1134_2025_9333_SCTT_LP-Entertainment.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3331/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>46020</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sao chép trực tuyến</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>HĐQTGAN-PN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>BÀ LÊ THỊ HƯƠNG LY</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>16 Đường số 9, Khu phố 5, phường Hiệp Bình, Tp. HCM</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0976482324</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Lê Thị Hương Ly</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Giám đốc</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>bechauxinh6789@gmail.com</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>001199031303</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>10/07/2021</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>LP Entertainment</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>UCtJDYAxmyxkq-VD_JKFEjsA</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>770000</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>700000</v>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>700,000</t>
+        </is>
+      </c>
+      <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>70000</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="AA29" t="n">
+        <v>770000</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Bảy trăm bảy mươi nghìn đồng</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1344_2025_3331_SCTT_LP-Entertainment.docx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1231/2025/HĐQTGAN-PN/MR</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>46022</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sao chép trực tuyến</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>HĐQTGAN-PN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>BÀ LÊ THỊ HƯƠNG LY</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>16 Đường số 9, Khu phố 5, phường Hiệp Bình, Tp. HCM</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0976482324</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Lê Thị Hương Ly</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Giám đốc</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>bechauxinh6789@gmail.com</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>001199031303</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>10/07/2021</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>LP Entertainment</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>UCtJDYAxmyxkq-VD_JKFEjsA</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>770000</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>700000</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>700,000</t>
+        </is>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>70000</v>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="AA30" t="n">
+        <v>770000</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>770,000</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Bảy trăm bảy mươi nghìn đồng</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1404_2025_1231_SCTT_LP-Entertainment.docx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Contract/storage/excel/contracts_2025.xlsx
+++ b/Contract/storage/excel/contracts_2025.xlsx
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -420,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
@@ -779,11 +778,11 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1080000</v>
+        <v>1100000</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1,080,000</t>
+          <t>1,100,000</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -795,32 +794,32 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>100,000</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>1080000</v>
+        <v>1100000</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1,080,000</t>
+          <t>1,100,000</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Một triệu tám mươi nghìn đồng</t>
+          <t>Một triệu một trăm nghìn đồng</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1430_2025_2653_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1437_2025_2653_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -833,8 +832,13 @@
       <c r="B4" t="n">
         <v>2025</v>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -896,54 +900,49 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>contact.hotrungdung@gmail.com</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>1100000</v>
+        <v>11000000</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1,100,000</t>
+          <t>11,000,000 VNĐ</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1,000,000</t>
+          <t>10,000,000 VNĐ</t>
         </is>
       </c>
       <c r="X4" t="n">
         <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>1,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>1100000</v>
+        <v>11000000</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1,100,000</t>
+          <t>11,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Một triệu một trăm nghìn đồng</t>
+          <t>Mười một triệu đồng</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1437_2025_2653_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1437_2025_2653_PL156_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -956,13 +955,8 @@
       <c r="B5" t="n">
         <v>2025</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
       <c r="D5" s="2" t="n">
-        <v>46015</v>
+        <v>46013</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1024,49 +1018,54 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
       <c r="T5" t="n">
-        <v>11000000</v>
+        <v>110000000</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>11,000,000 VNĐ</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>10,000,000 VNĐ</t>
+          <t>100,000,000</t>
         </is>
       </c>
       <c r="X5" t="n">
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1,000,000 VNĐ</t>
+          <t>10,000,000</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>11000000</v>
+        <v>110000000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11,000,000 VNĐ</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Mười một triệu đồng</t>
+          <t>Một trăm mười triệu đồng</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1437_2025_2653_PL156_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1449_2025_2653_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -1079,8 +1078,13 @@
       <c r="B6" t="n">
         <v>2025</v>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
       <c r="D6" s="2" t="n">
-        <v>46013</v>
+        <v>46015</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1142,73 +1146,63 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>tuan.dpa@vcpmc.org</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>110000000</v>
+        <v>22000000</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>22,000,000 VNĐ</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>100000000</v>
+        <v>20000000</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>100,000,000</t>
+          <t>20,000,000 VNĐ</t>
         </is>
       </c>
       <c r="X6" t="n">
         <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10,000,000</t>
+          <t>2,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>110000000</v>
+        <v>22000000</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>22,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Một trăm mười triệu đồng</t>
+          <t>Hai mươi hai triệu đồng</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1449_2025_2653_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1450_2025_2653_PL555_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2653/2025/HĐQTGAN-PN/MR</t>
+          <t>1212/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2025</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
       <c r="D7" s="2" t="n">
-        <v>46015</v>
+        <v>46008</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1260,6 +1254,16 @@
           <t>contact.hotrungdung@gmail.com</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0790860123456</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>12/12/2020</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>HỒ TRUNG DŨNG</t>
@@ -1270,49 +1274,54 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
       <c r="T7" t="n">
-        <v>22000000</v>
+        <v>110000000</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22,000,000 VNĐ</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>20000000</v>
+        <v>100000000</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>20,000,000 VNĐ</t>
+          <t>100,000,000</t>
         </is>
       </c>
       <c r="X7" t="n">
         <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2,000,000 VNĐ</t>
+          <t>10,000,000</t>
         </is>
       </c>
       <c r="AA7" t="n">
-        <v>22000000</v>
+        <v>110000000</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>22,000,000 VNĐ</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Hai mươi hai triệu đồng</t>
+          <t>Một trăm mười triệu đồng</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1450_2025_2653_PL555_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1455_2025_1212_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -1325,8 +1334,13 @@
       <c r="B8" t="n">
         <v>2025</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
       <c r="D8" s="2" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1378,16 +1392,6 @@
           <t>contact.hotrungdung@gmail.com</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0790860123456</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>12/12/2020</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>HỒ TRUNG DŨNG</t>
@@ -1398,73 +1402,63 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>tuan.dpa@vcpmc.org</t>
-        </is>
-      </c>
       <c r="T8" t="n">
-        <v>110000000</v>
+        <v>1100000000</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>1,100,000,000 VNĐ</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100,000,000</t>
+          <t>1,000,000,000 VNĐ</t>
         </is>
       </c>
       <c r="X8" t="n">
         <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10,000,000</t>
+          <t>100,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>110000000</v>
+        <v>1100000000</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>1,100,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Một trăm mười triệu đồng</t>
+          <t>Một tỷ một trăm triệu đồng</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1455_2025_1212_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1455_2025_1212_PL856_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1212/2025/HĐQTGAN-PN/MR</t>
+          <t>0001/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>856</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>46015</v>
+      <c r="D9" s="4" t="n">
+        <v>46014</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1483,22 +1477,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN SỰ KIỆN GIẢI TRÍ HỒ</t>
+          <t>CÔNG TY TNHH VIEENT</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2K Trường Sa, phường 19, quận Bình Thạnh, Tp. HCM.</t>
+          <t>LM81-26.06, Tòa LM81 Vinhomes Central Park, số 720A, Đường Điện Biên Phủ, Phường 22, Q. Bình Thạnh, Tp. Hồ Chí Minh</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0901480336</t>
+          <t>0899 993 645</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hồ Trung Dũng</t>
+          <t>Nguyễn Hồ Hải Long</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1508,67 +1502,72 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0312478419</t>
+          <t>0317054170</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>contact.hotrungdung@gmail.com</t>
+          <t>ketoan@vieent.com</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>HỒ TRUNG DŨNG</t>
+          <t>Jombie G5R official</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+          <t>UC2RS-mo4bAGbD-lPhJQSsNg</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>nghia.pt@vcpmc.org</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1100000000</v>
+        <v>1080000</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1,100,000,000 VNĐ</t>
+          <t>1,080,000</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1000000000</v>
+        <v>1000000</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1,000,000,000 VNĐ</t>
+          <t>1,000,000</t>
         </is>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>100000000</v>
+        <v>80000</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>100,000,000 VNĐ</t>
+          <t>80,000</t>
         </is>
       </c>
       <c r="AA9" t="n">
-        <v>1100000000</v>
+        <v>1080000</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1,100,000,000 VNĐ</t>
+          <t>1,080,000</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Một tỷ một trăm triệu đồng</t>
+          <t>Một triệu tám mươi nghìn đồng</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1455_2025_1212_PL856_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1515_2025_0001_SCTT_Jombie-G5R-official.docx</t>
         </is>
       </c>
     </row>
@@ -1581,8 +1580,13 @@
       <c r="B10" t="n">
         <v>2025</v>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
       <c r="D10" s="4" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1644,73 +1648,63 @@
           <t>UC2RS-mo4bAGbD-lPhJQSsNg</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>nghia.pt@vcpmc.org</t>
-        </is>
-      </c>
       <c r="T10" t="n">
-        <v>1080000</v>
+        <v>3240000</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1,080,000</t>
+          <t>3,240,000 VNĐ</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1,000,000</t>
+          <t>3,000,000 VNĐ</t>
         </is>
       </c>
       <c r="X10" t="n">
         <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>80000</v>
+        <v>240000</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>240,000 VNĐ</t>
         </is>
       </c>
       <c r="AA10" t="n">
-        <v>1080000</v>
+        <v>3240000</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1,080,000</t>
+          <t>3,240,000 VNĐ</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Một triệu tám mươi nghìn đồng</t>
+          <t>Ba triệu hai trăm bốn mươi nghìn đồng</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1515_2025_0001_SCTT_Jombie-G5R-official.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1518_2025_0001_PL01_SCTT_Jombie-G5R-official.docx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0001/2025/HĐQTGAN-PN/MR</t>
+          <t>5555/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
       <c r="D11" s="4" t="n">
-        <v>46015</v>
+        <v>46006</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1729,22 +1723,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH VIEENT</t>
+          <t>CÔNG TY CỔ PHẦN SỰ KIỆN GIẢI TRÍ HỒ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>LM81-26.06, Tòa LM81 Vinhomes Central Park, số 720A, Đường Điện Biên Phủ, Phường 22, Q. Bình Thạnh, Tp. Hồ Chí Minh</t>
+          <t>2K Trường Sa, phường 19, quận Bình Thạnh, Tp. HCM.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0899 993 645</t>
+          <t>0901480336</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nguyễn Hồ Hải Long</t>
+          <t>Hồ Trung Dũng</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1754,67 +1748,82 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0317054170</t>
+          <t>0312478419</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>ketoan@vieent.com</t>
+          <t>steaventtuan@gmail.com</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0790860123456</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Jombie G5R official</t>
+          <t>HỒ TRUNG DŨNG</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>UC2RS-mo4bAGbD-lPhJQSsNg</t>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>af.stevedao@gmail.com</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3240000</v>
+        <v>108000000</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>3,240,000 VNĐ</t>
+          <t>108,000,000</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3000000</v>
+        <v>100000000</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>3,000,000 VNĐ</t>
+          <t>100,000,000</t>
         </is>
       </c>
       <c r="X11" t="n">
         <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>240000</v>
+        <v>8000000</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>240,000 VNĐ</t>
+          <t>8,000,000</t>
         </is>
       </c>
       <c r="AA11" t="n">
-        <v>3240000</v>
+        <v>108000000</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3,240,000 VNĐ</t>
+          <t>108,000,000</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ba triệu hai trăm bốn mươi nghìn đồng</t>
+          <t>Một trăm lẻ tám triệu đồng</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1518_2025_0001_PL01_SCTT_Jombie-G5R-official.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1551_2025_5555_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1837,7 @@
         <v>2025</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>46006</v>
+        <v>46008</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1906,11 +1915,11 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>108000000</v>
+        <v>110000000</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>108,000,000</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1922,46 +1931,46 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>8,000,000</t>
+          <t>10,000,000</t>
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>108000000</v>
+        <v>110000000</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>108,000,000</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Một trăm lẻ tám triệu đồng</t>
+          <t>Một trăm mười triệu đồng</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1551_2025_5555_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1554_2025_5555_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5555/2025/HĐQTGAN-PN/MR</t>
+          <t>2653/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>46008</v>
+        <v>45995</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2010,7 +2019,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>steaventtuan@gmail.com</t>
+          <t>nghiapt06@gmail.com</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2080,21 +2089,21 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1554_2025_5555_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1554_2025_2653_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2653/2025/HĐQTGAN-PN/MR</t>
+          <t>1299/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>45995</v>
+        <v>46006</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2113,22 +2122,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN SỰ KIỆN GIẢI TRÍ HỒ</t>
+          <t>ÔNG HOÀNG MINH NGỌC</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2K Trường Sa, phường 19, quận Bình Thạnh, Tp. HCM.</t>
+          <t>Tòa nhà Samsora 105 Chu Văn An, phường Hà Đông, Tp. Hà Nội</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0901480336</t>
+          <t>0977500666</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hồ Trung Dũng</t>
+          <t>HOÀNG MINH NGỌC</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2136,98 +2145,93 @@
           <t>Giám đốc</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0312478419</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>nghiapt06@gmail.com</t>
+          <t>hoangminhngoc0105@gmail.com</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0790860123456</t>
+          <t>035091001747</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>12/12/2020</t>
+          <t>18/09/2022</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>HỒ TRUNG DŨNG</t>
+          <t>Nhạc dốc mê ta</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+          <t>UCl1fjToE1EQQiYkBV4OrXLw</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>af.stevedao@gmail.com</t>
+          <t>nghia.pt@vcpmc.org</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>110000000</v>
+        <v>21006000</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>21,006,000</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>100000000</v>
+        <v>19450000</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>100,000,000</t>
+          <t>19,450,000</t>
         </is>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
-        <v>10000000</v>
+        <v>1556000</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10,000,000</t>
+          <t>1,556,000</t>
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>110000000</v>
+        <v>21006000</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>21,006,000</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Một trăm mười triệu đồng</t>
+          <t>Hai mươi mốt triệu sáu nghìn đồng</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1554_2025_2653_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1555_2025_1299_SCTT_Nhac-doc-me-ta.docx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1299/2025/HĐQTGAN-PN/MR</t>
+          <t>1212/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>46006</v>
+        <v>46014</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2246,22 +2250,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ÔNG HOÀNG MINH NGỌC</t>
+          <t>CÔNG TY CỔ PHẦN SỰ KIỆN GIẢI TRÍ HỒ</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Tòa nhà Samsora 105 Chu Văn An, phường Hà Đông, Tp. Hà Nội</t>
+          <t>2K Trường Sa, phường 19, quận Bình Thạnh, Tp. HCM.</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0977500666</t>
+          <t>0901480336</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>HOÀNG MINH NGỌC</t>
+          <t>Hồ Trung Dũng</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2269,93 +2273,98 @@
           <t>Giám đốc</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0312478419</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>hoangminhngoc0105@gmail.com</t>
+          <t>contact.hotrungdung@gmail.com</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>035091001747</t>
+          <t>0790860123456</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>18/09/2022</t>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Nhạc dốc mê ta</t>
+          <t>HỒ TRUNG DŨNG</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>UCl1fjToE1EQQiYkBV4OrXLw</t>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>nghia.pt@vcpmc.org</t>
+          <t>tuan.dpa@vcpmc.org</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>21006000</v>
+        <v>110000000</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>21,006,000</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>19450000</v>
+        <v>100000000</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>19,450,000</t>
+          <t>100,000,000</t>
         </is>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>1556000</v>
+        <v>10000000</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>1,556,000</t>
+          <t>10,000,000</t>
         </is>
       </c>
       <c r="AA15" t="n">
-        <v>21006000</v>
+        <v>110000000</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>21,006,000</t>
+          <t>110,000,000</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Hai mươi mốt triệu sáu nghìn đồng</t>
+          <t>Một trăm mười triệu đồng</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1555_2025_1299_SCTT_Nhac-doc-me-ta.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1630_2025_1212_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1212/2025/HĐQTGAN-PN/MR</t>
+          <t>1111/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>46014</v>
+        <v>46008</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1630_2025_1212_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1637_2025_1111_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1111/2025/HĐQTGAN-PN/MR</t>
+          <t>1234/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2566,48 +2575,48 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>110000000</v>
+        <v>216000000</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>216,000,000</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>100000000</v>
+        <v>200000000</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>100,000,000</t>
+          <t>200,000,000</t>
         </is>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>10000000</v>
+        <v>16000000</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10,000,000</t>
+          <t>16,000,000</t>
         </is>
       </c>
       <c r="AA17" t="n">
-        <v>110000000</v>
+        <v>216000000</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>110,000,000</t>
+          <t>216,000,000</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Một trăm mười triệu đồng</t>
+          <t>Hai trăm mười sáu triệu đồng</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1637_2025_1111_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1653_2025_1234_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -2620,8 +2629,13 @@
       <c r="B18" t="n">
         <v>2025</v>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
       <c r="D18" s="4" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2673,16 +2687,6 @@
           <t>contact.hotrungdung@gmail.com</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0790860123456</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>12/12/2020</t>
-        </is>
-      </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>HỒ TRUNG DŨNG</t>
@@ -2693,73 +2697,63 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>tuan.dpa@vcpmc.org</t>
-        </is>
-      </c>
       <c r="T18" t="n">
-        <v>216000000</v>
+        <v>54000000</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>216,000,000</t>
+          <t>54,000,000 VNĐ</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>200000000</v>
+        <v>50000000</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>200,000,000</t>
+          <t>50,000,000 VNĐ</t>
         </is>
       </c>
       <c r="X18" t="n">
         <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>16000000</v>
+        <v>4000000</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16,000,000</t>
+          <t>4,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AA18" t="n">
-        <v>216000000</v>
+        <v>54000000</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>216,000,000</t>
+          <t>54,000,000 VNĐ</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Hai trăm mười sáu triệu đồng</t>
+          <t>Năm mươi tư triệu đồng</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1653_2025_1234_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1654_2025_1234_PL056_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1234/2025/HĐQTGAN-PN/MR</t>
+          <t>1299/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2025</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>056</t>
-        </is>
-      </c>
       <c r="D19" s="4" t="n">
-        <v>46015</v>
+        <v>46006</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2778,22 +2772,22 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN SỰ KIỆN GIẢI TRÍ HỒ</t>
+          <t>ÔNG HOÀNG MINH NGỌC</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2K Trường Sa, phường 19, quận Bình Thạnh, Tp. HCM.</t>
+          <t>Tòa nhà Samsora 105 Chu Văn An, phường Hà Đông, Tp. Hà Nội</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0901480336</t>
+          <t>0977500666</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Hồ Trung Dũng</t>
+          <t>HOÀNG MINH NGỌC</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2801,69 +2795,79 @@
           <t>Giám đốc</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0312478419</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>contact.hotrungdung@gmail.com</t>
+          <t>hoangminhngoc0105@gmail.com</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>035091001747</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>18/09/2022</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>HỒ TRUNG DŨNG</t>
+          <t>Nhạc dốc mê ta</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+          <t>UCl1fjToE1EQQiYkBV4OrXLw</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>nghia.pt@vcpmc.org</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>54000000</v>
+        <v>21006000</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>54,000,000 VNĐ</t>
+          <t>21,006,000</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>50000000</v>
+        <v>19450000</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>50,000,000 VNĐ</t>
+          <t>19,450,000</t>
         </is>
       </c>
       <c r="X19" t="n">
         <v>8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4000000</v>
+        <v>1556000</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>4,000,000 VNĐ</t>
+          <t>1,556,000</t>
         </is>
       </c>
       <c r="AA19" t="n">
-        <v>54000000</v>
+        <v>21006000</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>54,000,000 VNĐ</t>
+          <t>21,006,000</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Năm mươi tư triệu đồng</t>
+          <t>Hai mươi mốt triệu sáu nghìn đồng</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1654_2025_1234_PL056_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1700_2025_1299_SCTT_Nhac-doc-me-ta.docx</t>
         </is>
       </c>
     </row>
@@ -2876,8 +2880,13 @@
       <c r="B20" t="n">
         <v>2025</v>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
       <c r="D20" s="4" t="n">
-        <v>46006</v>
+        <v>46015</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2924,16 +2933,6 @@
           <t>hoangminhngoc0105@gmail.com</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>035091001747</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>18/09/2022</t>
-        </is>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
           <t>Nhạc dốc mê ta</t>
@@ -2944,17 +2943,12 @@
           <t>UCl1fjToE1EQQiYkBV4OrXLw</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>nghia.pt@vcpmc.org</t>
-        </is>
-      </c>
       <c r="T20" t="n">
-        <v>21006000</v>
+        <v>21395000</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>21,006,000</t>
+          <t>21,395,000 VNĐ</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -2962,55 +2956,50 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>19,450,000</t>
+          <t>19,450,000 VNĐ</t>
         </is>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y20" t="n">
-        <v>1556000</v>
+        <v>1945000</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>1,556,000</t>
+          <t>1,945,000 VNĐ</t>
         </is>
       </c>
       <c r="AA20" t="n">
-        <v>21006000</v>
+        <v>21395000</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>21,006,000</t>
+          <t>21,395,000 VNĐ</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Hai mươi mốt triệu sáu nghìn đồng</t>
+          <t>Hai mươi mốt triệu ba trăm chín mươi lăm nghìn đồng</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1700_2025_1299_SCTT_Nhac-doc-me-ta.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251224-1702_2025_1299_PL01_SCTT_Nhac-doc-me-ta.docx</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1299/2025/HĐQTGAN-PN/MR</t>
+          <t>3333/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2025</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
       <c r="D21" s="4" t="n">
-        <v>46015</v>
+        <v>46013</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3029,22 +3018,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ÔNG HOÀNG MINH NGỌC</t>
+          <t>CÔNG TY CỔ PHẦN SỰ KIỆN GIẢI TRÍ HỒ</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tòa nhà Samsora 105 Chu Văn An, phường Hà Đông, Tp. Hà Nội</t>
+          <t>2K Trường Sa, phường 19, quận Bình Thạnh, Tp. HCM.</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0977500666</t>
+          <t>0901480336</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>HOÀNG MINH NGỌC</t>
+          <t>Hồ Trung Dũng</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3052,64 +3041,84 @@
           <t>Giám đốc</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0312478419</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>hoangminhngoc0105@gmail.com</t>
+          <t>contact.hotrungdung@gmail.com</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0790860123456</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Nhạc dốc mê ta</t>
+          <t>HỒ TRUNG DŨNG</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>UCl1fjToE1EQQiYkBV4OrXLw</t>
+          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>21395000</v>
+        <v>216000000</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>21,395,000 VNĐ</t>
+          <t>216,000,000</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>19450000</v>
+        <v>200000000</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>19,450,000 VNĐ</t>
+          <t>200,000,000</t>
         </is>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
-        <v>1945000</v>
+        <v>16000000</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>1,945,000 VNĐ</t>
+          <t>16,000,000</t>
         </is>
       </c>
       <c r="AA21" t="n">
-        <v>21395000</v>
+        <v>216000000</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>21,395,000 VNĐ</t>
+          <t>216,000,000</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Hai mươi mốt triệu ba trăm chín mươi lăm nghìn đồng</t>
+          <t>Hai trăm mười sáu triệu đồng</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251224-1702_2025_1299_PL01_SCTT_Nhac-doc-me-ta.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251225-1047_2025_3333_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -3122,8 +3131,13 @@
       <c r="B22" t="n">
         <v>2025</v>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
       <c r="D22" s="4" t="n">
-        <v>46013</v>
+        <v>46016</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3175,16 +3189,6 @@
           <t>contact.hotrungdung@gmail.com</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0790860123456</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>12/12/2020</t>
-        </is>
-      </c>
       <c r="Q22" t="inlineStr">
         <is>
           <t>HỒ TRUNG DŨNG</t>
@@ -3195,54 +3199,49 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>tuan.dpa@vcpmc.org</t>
-        </is>
-      </c>
       <c r="T22" t="n">
-        <v>216000000</v>
+        <v>6480000</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>216,000,000</t>
+          <t>6,480,000 VNĐ</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>200000000</v>
+        <v>6000000</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>200,000,000</t>
+          <t>6,000,000 VNĐ</t>
         </is>
       </c>
       <c r="X22" t="n">
         <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>16000000</v>
+        <v>480000</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>16,000,000</t>
+          <t>480,000 VNĐ</t>
         </is>
       </c>
       <c r="AA22" t="n">
-        <v>216000000</v>
+        <v>6480000</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>216,000,000</t>
+          <t>6,480,000 VNĐ</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Hai trăm mười sáu triệu đồng</t>
+          <t>Sáu triệu bốn trăm tám mươi nghìn đồng</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251225-1047_2025_3333_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251225-1117_2025_3333_PL555_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
@@ -3324,11 +3323,11 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6480000</v>
+        <v>6600000</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>6,480,000 VNĐ</t>
+          <t>6,600,000 VNĐ</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -3340,51 +3339,46 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>480000</v>
+        <v>600000</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>480,000 VNĐ</t>
+          <t>600,000 VNĐ</t>
         </is>
       </c>
       <c r="AA23" t="n">
-        <v>6480000</v>
+        <v>6600000</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>6,480,000 VNĐ</t>
+          <t>6,600,000 VNĐ</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Sáu triệu bốn trăm tám mươi nghìn đồng</t>
+          <t>Sáu triệu sáu trăm nghìn đồng</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251225-1117_2025_3333_PL555_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251225-1119_2025_3333_PL555_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3333/2025/HĐQTGAN-PN/MR</t>
+          <t>2568/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2025</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
       <c r="D24" s="4" t="n">
-        <v>46016</v>
+        <v>46015</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3436,6 +3430,16 @@
           <t>contact.hotrungdung@gmail.com</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0790860123456</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>12/12/2020</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr">
         <is>
           <t>HỒ TRUNG DŨNG</t>
@@ -3446,63 +3450,68 @@
           <t>UCDEf8axPu3hAqaItgFNwueQ</t>
         </is>
       </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>tuan.dpa@vcpmc.org</t>
+        </is>
+      </c>
       <c r="T24" t="n">
-        <v>6600000</v>
+        <v>216000000</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>6,600,000 VNĐ</t>
+          <t>216,000,000</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>6000000</v>
+        <v>200000000</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>6,000,000 VNĐ</t>
+          <t>200,000,000</t>
         </is>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
-        <v>600000</v>
+        <v>16000000</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>600,000 VNĐ</t>
+          <t>16,000,000</t>
         </is>
       </c>
       <c r="AA24" t="n">
-        <v>6600000</v>
+        <v>216000000</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>6,600,000 VNĐ</t>
+          <t>216,000,000</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Sáu triệu sáu trăm nghìn đồng</t>
+          <t>Hai trăm mười sáu triệu đồng</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251225-1119_2025_3333_PL555_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\storage\docx\2025\20251225-1554_2025_2568_SCTT_HO-TRUNG-DUNG.docx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2568/2025/HĐQTGAN-PN/MR</t>
+          <t>1596/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2025</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>46015</v>
+        <v>46018</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3521,22 +3530,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CÔNG TY CỔ PHẦN SỰ KIỆN GIẢI TRÍ HỒ</t>
+          <t>BÀ LÊ THỊ HƯƠNG LY</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2K Trường Sa, phường 19, quận Bình Thạnh, Tp. HCM.</t>
+          <t>16 Đường số 9, Khu phố 5, phường Hiệp Bình, Tp. HCM</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0901480336</t>
+          <t>0976482324</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hồ Trung Dũng</t>
+          <t>Lê Thị Hương Ly</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3544,34 +3553,29 @@
           <t>Giám đốc</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0312478419</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>contact.hotrungdung@gmail.com</t>
+          <t>bechauxinh6789@gmail.com</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0790860123456</t>
+          <t>001199031303</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>12/12/2020</t>
+          <t>10/07/2021</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>HỒ TRUNG DŨNG</t>
+          <t>LP Entertainment</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>UCDEf8axPu3hAqaItgFNwueQ</t>
+          <t>UCtJDYAxmyxkq-VD_JKFEjsA</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3580,62 +3584,62 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>216000000</v>
+        <v>770000</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>216,000,000</t>
+          <t>770,000</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>200000000</v>
+        <v>700000</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>200,000,000</t>
+          <t>700,000</t>
         </is>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
-        <v>16000000</v>
+        <v>70000</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16,000,000</t>
+          <t>70,000</t>
         </is>
       </c>
       <c r="AA25" t="n">
-        <v>216000000</v>
+        <v>770000</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>216,000,000</t>
+          <t>770,000</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Hai trăm mười sáu triệu đồng</t>
+          <t>Bảy trăm bảy mươi nghìn đồng</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>F:\Dev\test\storage\docx\2025\20251225-1554_2025_2568_SCTT_HO-TRUNG-DUNG.docx</t>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-0940_2025_1596_SCTT_LP-Entertainment.docx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1596/2025/HĐQTGAN-PN/MR</t>
+          <t>2555/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2025</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>46018</v>
+        <v>46020</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3749,14 +3753,14 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-0940_2025_1596_SCTT_LP-Entertainment.docx</t>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1128_2025_2555_SCTT_LP-Entertainment.docx</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2555/2025/HĐQTGAN-PN/MR</t>
+          <t>9333/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3877,14 +3881,14 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1128_2025_2555_SCTT_LP-Entertainment.docx</t>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1134_2025_9333_SCTT_LP-Entertainment.docx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9333/2025/HĐQTGAN-PN/MR</t>
+          <t>3331/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4005,21 +4009,21 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1134_2025_9333_SCTT_LP-Entertainment.docx</t>
+          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1344_2025_3331_SCTT_LP-Entertainment.docx</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3331/2025/HĐQTGAN-PN/MR</t>
+          <t>1231/2025/HĐQTGAN-PN/MR</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2025</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4132,135 +4136,6 @@
         </is>
       </c>
       <c r="AD29" t="inlineStr">
-        <is>
-          <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1344_2025_3331_SCTT_LP-Entertainment.docx</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1231/2025/HĐQTGAN-PN/MR</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>46022</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Sao chép trực tuyến</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>HĐQTGAN-PN</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>MR</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>BÀ LÊ THỊ HƯƠNG LY</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>16 Đường số 9, Khu phố 5, phường Hiệp Bình, Tp. HCM</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0976482324</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Lê Thị Hương Ly</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Giám đốc</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>bechauxinh6789@gmail.com</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>001199031303</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>10/07/2021</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>LP Entertainment</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>UCtJDYAxmyxkq-VD_JKFEjsA</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>tuan.dpa@vcpmc.org</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>770000</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>770,000</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>700000</v>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>700,000</t>
-        </is>
-      </c>
-      <c r="X30" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>70000</v>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="AA30" t="n">
-        <v>770000</v>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>770,000</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Bảy trăm bảy mươi nghìn đồng</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
         <is>
           <t>F:\Dev\test\Contract\storage\docx\2025\20251229-1404_2025_1231_SCTT_LP-Entertainment.docx</t>
         </is>
